--- a/MetaEdOutput/Public-Ed-Fi-XML-Data-Dictionary.xlsx
+++ b/MetaEdOutput/Public-Ed-Fi-XML-Data-Dictionary.xlsx
@@ -27699,7 +27699,7 @@
         <x:v>EXTENSION-ObservationTypeDescriptor</x:v>
       </x:c>
       <x:c r="B196" s="2" t="str">
-        <x:v>The descriptor holds the previous career of an individual.</x:v>
+        <x:v>The descriptor holds the type (e.g., walkthrough, summative) of observation conducted.</x:v>
       </x:c>
     </x:row>
     <x:row r="197">
@@ -32267,17 +32267,16 @@
         <x:v>EXTENSION-ObservationTypeMapType</x:v>
       </x:c>
       <x:c r="B122" s="2" t="str">
-        <x:v>Accounting
-Consulting
-Maintenance
-Science and Technology
-Education
-Medical
+        <x:v>Walkthrough
+Formal
+Informal
+Self Reflection
+Summative
 Other
 </x:v>
       </x:c>
       <x:c r="C122" s="2" t="str">
-        <x:v>Map for the type of previous careers.</x:v>
+        <x:v>Map for the observation types.</x:v>
       </x:c>
     </x:row>
     <x:row r="123">

--- a/MetaEdOutput/Public-Ed-Fi-XML-Data-Dictionary.xlsx
+++ b/MetaEdOutput/Public-Ed-Fi-XML-Data-Dictionary.xlsx
@@ -3026,6 +3026,7 @@
       </x:c>
       <x:c r="D163" s="2" t="str">
         <x:v>minOccurs: 0
+maxOccurs: unbounded
 </x:v>
       </x:c>
       <x:c r="E163" s="2" t="str">
@@ -6838,8 +6839,7 @@
         <x:v>EXTENSION-Aid</x:v>
       </x:c>
       <x:c r="D377" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E377" s="2" t="str">
         <x:v>The date the award was designated.</x:v>
@@ -6856,8 +6856,7 @@
         <x:v>EXTENSION-Coteaching</x:v>
       </x:c>
       <x:c r="D378" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E378" s="2" t="str">
         <x:v>The month, day, and year on which the teacher candidate first starts co-teaching.</x:v>
@@ -18359,8 +18358,7 @@
         <x:v>EXTENSION-Observer</x:v>
       </x:c>
       <x:c r="D1030" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E1030" s="2" t="str">
         <x:v>A name given to an individual at birth, baptism, or during another naming ceremony, or through legal change.</x:v>
@@ -18500,8 +18498,7 @@
         <x:v>EXTENSION-AggregatedGender</x:v>
       </x:c>
       <x:c r="D1038" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E1038" s="2" t="str">
         <x:v>The gender with which a person associates.</x:v>
@@ -21974,8 +21971,7 @@
         <x:v>EXTENSION-AggregatedLanguage</x:v>
       </x:c>
       <x:c r="D1233" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E1233" s="2" t="str">
         <x:v>Data about the language of the group</x:v>
@@ -22117,8 +22113,7 @@
         <x:v>EXTENSION-Observer</x:v>
       </x:c>
       <x:c r="D1241" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E1241" s="2" t="str">
         <x:v>The name borne in common by members of a family.</x:v>
@@ -28955,8 +28950,7 @@
         <x:v>EXTENSION-AggregatedRace</x:v>
       </x:c>
       <x:c r="D1623" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E1623" s="2" t="str">
         <x:v>The general racial category which most clearly reflects the individual's recognition of his or her community or with which the individual most identifies. The way this data element is listed, it must allow for multiple entries so that each individual can specify all appropriate races.</x:v>
@@ -31014,8 +31008,7 @@
         <x:v>EXTENSION-AggregatedSchoolFoodServicesEligibility</x:v>
       </x:c>
       <x:c r="D1737" s="2" t="str">
-        <x:v>minOccurs: 0
-</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E1737" s="2" t="str">
         <x:v>Information about the students who are enrolled based on School Food Services Eligibility</x:v>
@@ -45810,7 +45803,7 @@
         <x:v>EXTENSION-ProspectProfessionalDevelopmentEventAttendance</x:v>
       </x:c>
       <x:c r="B320" s="2" t="str">
-        <x:v>?</x:v>
+        <x:v>This event entity represents the recording of whether a prospect is in attendance for professional development.</x:v>
       </x:c>
     </x:row>
     <x:row r="321">
@@ -46106,7 +46099,7 @@
         <x:v>EXTENSION-SectionStudentAssessmentFact</x:v>
       </x:c>
       <x:c r="B357" s="2" t="str">
-        <x:v>?</x:v>
+        <x:v>This domain entity collects data for aggregated level students with whom the teacher candidate is associated through field work or student teaching.</x:v>
       </x:c>
     </x:row>
     <x:row r="358">
@@ -46306,7 +46299,7 @@
         <x:v>EXTENSION-StaffProfessionalDevelopmentEventAttendance</x:v>
       </x:c>
       <x:c r="B382" s="2" t="str">
-        <x:v>?</x:v>
+        <x:v>This event entity represents the recording of whether a staff is in attendance for professional development.</x:v>
       </x:c>
     </x:row>
     <x:row r="383">
@@ -46426,7 +46419,7 @@
         <x:v>EXTENSION-StudentsEnrolled</x:v>
       </x:c>
       <x:c r="B397" s="2" t="str">
-        <x:v>?</x:v>
+        <x:v>This aggregated fact entity holds the information regarding number of students enrolled in an education organization, course, or section or have data pertaining to academic records or assessments.</x:v>
       </x:c>
     </x:row>
     <x:row r="398">
@@ -46618,7 +46611,7 @@
         <x:v>EXTENSION-TeacherCandidateAcademicRecord</x:v>
       </x:c>
       <x:c r="B421" s="2" t="str">
-        <x:v>?</x:v>
+        <x:v>This educational entity represents the cumulative record of academic achievement for a teacher candidate.</x:v>
       </x:c>
     </x:row>
     <x:row r="422">
@@ -46714,7 +46707,7 @@
         <x:v>EXTENSION-TeacherCandidateProfessionalDevelopmentEventAttendance</x:v>
       </x:c>
       <x:c r="B433" s="2" t="str">
-        <x:v>?</x:v>
+        <x:v>This event entity represents the recording of whether a teacher candidate is in attendance for professional development.</x:v>
       </x:c>
     </x:row>
     <x:row r="434">
